--- a/data/analysis/indicators/indic_pivot_tables/indic-country/indic_counts-country.xlsx
+++ b/data/analysis/indicators/indic_pivot_tables/indic-country/indic_counts-country.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="28">
   <si>
     <t>session_id</t>
   </si>
@@ -43,10 +43,25 @@
     <t>20210404</t>
   </si>
   <si>
+    <t>20210503</t>
+  </si>
+  <si>
+    <t>20210614</t>
+  </si>
+  <si>
     <t>20210629</t>
   </si>
   <si>
+    <t>20210712</t>
+  </si>
+  <si>
+    <t>20210809</t>
+  </si>
+  <si>
     <t>20210914</t>
+  </si>
+  <si>
+    <t>20211108</t>
   </si>
   <si>
     <t>closed_cur</t>
@@ -444,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,10 +493,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -501,10 +516,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>1743</v>
@@ -524,10 +539,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -547,10 +562,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>47</v>
@@ -570,10 +585,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>318</v>
@@ -593,10 +608,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>120</v>
@@ -616,10 +631,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -639,10 +654,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>900</v>
@@ -662,10 +677,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -685,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>22</v>
@@ -708,10 +723,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>131</v>
@@ -731,10 +746,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>52</v>
@@ -754,10 +769,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>17</v>
@@ -777,10 +792,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>2033</v>
@@ -800,10 +815,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -823,10 +838,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>78</v>
@@ -846,10 +861,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>394</v>
@@ -869,10 +884,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>161</v>
@@ -892,10 +907,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -915,10 +930,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>1133</v>
@@ -938,10 +953,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>9</v>
@@ -961,10 +976,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <v>44</v>
@@ -984,10 +999,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>207</v>
@@ -1007,10 +1022,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>73</v>
@@ -1030,10 +1045,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>11</v>
@@ -1053,10 +1068,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>1882</v>
@@ -1076,10 +1091,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <v>12</v>
@@ -1099,10 +1114,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <v>51</v>
@@ -1122,10 +1137,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D30">
         <v>334</v>
@@ -1145,10 +1160,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D31">
         <v>127</v>
@@ -1168,10 +1183,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1191,10 +1206,10 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D33">
         <v>1055</v>
@@ -1214,10 +1229,10 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1237,10 +1252,10 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D35">
         <v>27</v>
@@ -1260,10 +1275,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D36">
         <v>185</v>
@@ -1283,10 +1298,10 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>81</v>
@@ -1306,10 +1321,10 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -1329,10 +1344,10 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D39">
         <v>1742</v>
@@ -1352,10 +1367,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D40">
         <v>12</v>
@@ -1375,10 +1390,10 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D41">
         <v>51</v>
@@ -1398,10 +1413,10 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D42">
         <v>319</v>
@@ -1421,10 +1436,10 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D43">
         <v>119</v>
@@ -1444,10 +1459,10 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D44">
         <v>7</v>
@@ -1467,10 +1482,10 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D45">
         <v>937</v>
@@ -1490,10 +1505,10 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1513,10 +1528,10 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D47">
         <v>24</v>
@@ -1536,10 +1551,10 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D48">
         <v>136</v>
@@ -1559,10 +1574,10 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D49">
         <v>54</v>
@@ -1582,10 +1597,10 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D50">
         <v>17</v>
@@ -1605,10 +1620,10 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D51">
         <v>2055</v>
@@ -1628,10 +1643,10 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D52">
         <v>14</v>
@@ -1651,10 +1666,10 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D53">
         <v>78</v>
@@ -1674,10 +1689,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D54">
         <v>394</v>
@@ -1697,10 +1712,10 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D55">
         <v>164</v>
@@ -1720,10 +1735,10 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D56">
         <v>10</v>
@@ -1743,10 +1758,10 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D57">
         <v>1169</v>
@@ -1766,10 +1781,10 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D58">
         <v>9</v>
@@ -1789,10 +1804,10 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D59">
         <v>42</v>
@@ -1812,10 +1827,10 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D60">
         <v>214</v>
@@ -1835,10 +1850,10 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D61">
         <v>86</v>
@@ -1858,10 +1873,10 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D62">
         <v>12</v>
@@ -1881,10 +1896,10 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D63">
         <v>1904</v>
@@ -1904,10 +1919,10 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D64">
         <v>12</v>
@@ -1927,10 +1942,10 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D65">
         <v>53</v>
@@ -1950,10 +1965,10 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D66">
         <v>349</v>
@@ -1973,10 +1988,10 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D67">
         <v>130</v>
@@ -1996,10 +2011,10 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -2019,10 +2034,10 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D69">
         <v>1056</v>
@@ -2042,10 +2057,10 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -2065,10 +2080,10 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D71">
         <v>28</v>
@@ -2088,10 +2103,10 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D72">
         <v>186</v>
@@ -2111,10 +2126,10 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D73">
         <v>81</v>
@@ -2134,10 +2149,10 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D74">
         <v>10</v>
@@ -2149,7 +2164,7 @@
         <v>41.7</v>
       </c>
       <c r="G74" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2157,22 +2172,22 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D75">
-        <v>1524</v>
+        <v>1663</v>
       </c>
       <c r="E75">
         <v>2507</v>
       </c>
       <c r="F75">
-        <v>60.8</v>
+        <v>66.3</v>
       </c>
       <c r="G75" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2180,22 +2195,22 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76">
         <v>11</v>
       </c>
-      <c r="C76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76">
-        <v>9</v>
-      </c>
       <c r="E76">
         <v>15</v>
       </c>
       <c r="F76">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="G76" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2203,22 +2218,22 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D77">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E77">
         <v>94</v>
       </c>
       <c r="F77">
-        <v>50</v>
+        <v>53.2</v>
       </c>
       <c r="G77" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2226,22 +2241,22 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="E78">
         <v>494</v>
       </c>
       <c r="F78">
-        <v>57.3</v>
+        <v>60.3</v>
       </c>
       <c r="G78" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2249,22 +2264,22 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D79">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E79">
         <v>207</v>
       </c>
       <c r="F79">
-        <v>49.8</v>
+        <v>55.1</v>
       </c>
       <c r="G79" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2272,10 +2287,10 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D80">
         <v>7</v>
@@ -2287,7 +2302,7 @@
         <v>29.2</v>
       </c>
       <c r="G80" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2295,22 +2310,22 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D81">
-        <v>907</v>
+        <v>920</v>
       </c>
       <c r="E81">
         <v>2507</v>
       </c>
       <c r="F81">
-        <v>36.2</v>
+        <v>36.7</v>
       </c>
       <c r="G81" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2318,10 +2333,10 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -2333,7 +2348,7 @@
         <v>20</v>
       </c>
       <c r="G82" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2341,22 +2356,22 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D83">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E83">
         <v>94</v>
       </c>
       <c r="F83">
-        <v>22.3</v>
+        <v>24.5</v>
       </c>
       <c r="G83" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2364,22 +2379,22 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D84">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E84">
         <v>494</v>
       </c>
       <c r="F84">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="G84" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2387,22 +2402,22 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D85">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E85">
         <v>207</v>
       </c>
       <c r="F85">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="G85" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2410,10 +2425,10 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D86">
         <v>18</v>
@@ -2425,7 +2440,7 @@
         <v>75</v>
       </c>
       <c r="G86" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2433,22 +2448,22 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D87">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="E87">
         <v>2507</v>
       </c>
       <c r="F87">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G87" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2456,10 +2471,10 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D88">
         <v>14</v>
@@ -2471,7 +2486,7 @@
         <v>93.3</v>
       </c>
       <c r="G88" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2479,22 +2494,22 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D89">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E89">
         <v>94</v>
       </c>
       <c r="F89">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G89" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2502,22 +2517,22 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D90">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E90">
         <v>494</v>
       </c>
       <c r="F90">
-        <v>80.40000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G90" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2525,10 +2540,10 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D91">
         <v>161</v>
@@ -2540,7 +2555,7 @@
         <v>77.8</v>
       </c>
       <c r="G91" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2548,10 +2563,10 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D92">
         <v>10</v>
@@ -2563,7 +2578,7 @@
         <v>41.7</v>
       </c>
       <c r="G92" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2571,22 +2586,22 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D93">
-        <v>1299</v>
+        <v>1223</v>
       </c>
       <c r="E93">
         <v>2507</v>
       </c>
       <c r="F93">
-        <v>51.8</v>
+        <v>48.8</v>
       </c>
       <c r="G93" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2594,10 +2609,10 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D94">
         <v>9</v>
@@ -2609,7 +2624,7 @@
         <v>60</v>
       </c>
       <c r="G94" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2617,22 +2632,22 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D95">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E95">
         <v>94</v>
       </c>
       <c r="F95">
-        <v>50</v>
+        <v>46.8</v>
       </c>
       <c r="G95" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2640,22 +2655,22 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D96">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E96">
         <v>494</v>
       </c>
       <c r="F96">
-        <v>49.4</v>
+        <v>48</v>
       </c>
       <c r="G96" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2663,22 +2678,22 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D97">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E97">
         <v>207</v>
       </c>
       <c r="F97">
-        <v>44.9</v>
+        <v>39.6</v>
       </c>
       <c r="G97" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2686,10 +2701,10 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D98">
         <v>12</v>
@@ -2701,7 +2716,7 @@
         <v>50</v>
       </c>
       <c r="G98" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2709,22 +2724,22 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D99">
-        <v>1880</v>
+        <v>1917</v>
       </c>
       <c r="E99">
         <v>2507</v>
       </c>
       <c r="F99">
-        <v>75</v>
+        <v>76.5</v>
       </c>
       <c r="G99" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2732,10 +2747,10 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D100">
         <v>11</v>
@@ -2747,7 +2762,7 @@
         <v>73.3</v>
       </c>
       <c r="G100" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2755,22 +2770,22 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D101">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E101">
         <v>94</v>
       </c>
       <c r="F101">
-        <v>55.3</v>
+        <v>56.4</v>
       </c>
       <c r="G101" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2778,22 +2793,22 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D102">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E102">
         <v>494</v>
       </c>
       <c r="F102">
-        <v>69.8</v>
+        <v>70.2</v>
       </c>
       <c r="G102" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2801,22 +2816,22 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D103">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E103">
         <v>207</v>
       </c>
       <c r="F103">
-        <v>59.9</v>
+        <v>61.4</v>
       </c>
       <c r="G103" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2824,10 +2839,10 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -2839,7 +2854,7 @@
         <v>12.5</v>
       </c>
       <c r="G104" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2847,22 +2862,22 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D105">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="E105">
         <v>2507</v>
       </c>
       <c r="F105">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="G105" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2870,10 +2885,10 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -2885,7 +2900,7 @@
         <v>20</v>
       </c>
       <c r="G106" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2893,22 +2908,22 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D107">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E107">
         <v>94</v>
       </c>
       <c r="F107">
-        <v>33</v>
+        <v>29.8</v>
       </c>
       <c r="G107" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2916,22 +2931,22 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D108">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E108">
         <v>494</v>
       </c>
       <c r="F108">
-        <v>38.3</v>
+        <v>37.4</v>
       </c>
       <c r="G108" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2939,22 +2954,22 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D109">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E109">
         <v>207</v>
       </c>
       <c r="F109">
-        <v>40.1</v>
+        <v>39.6</v>
       </c>
       <c r="G109" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2962,10 +2977,10 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D110">
         <v>10</v>
@@ -2977,7 +2992,7 @@
         <v>41.7</v>
       </c>
       <c r="G110" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2985,22 +3000,22 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D111">
-        <v>1346</v>
+        <v>1524</v>
       </c>
       <c r="E111">
         <v>2507</v>
       </c>
       <c r="F111">
-        <v>53.7</v>
+        <v>60.8</v>
       </c>
       <c r="G111" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3008,22 +3023,22 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E112">
         <v>15</v>
       </c>
       <c r="F112">
-        <v>46.7</v>
+        <v>60</v>
       </c>
       <c r="G112" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3031,22 +3046,22 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D113">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E113">
         <v>94</v>
       </c>
       <c r="F113">
-        <v>44.7</v>
+        <v>50</v>
       </c>
       <c r="G113" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3054,22 +3069,22 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D114">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="E114">
         <v>494</v>
       </c>
       <c r="F114">
-        <v>52.2</v>
+        <v>57.7</v>
       </c>
       <c r="G114" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3077,22 +3092,22 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D115">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E115">
         <v>207</v>
       </c>
       <c r="F115">
-        <v>46.9</v>
+        <v>51.2</v>
       </c>
       <c r="G115" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3100,10 +3115,10 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D116">
         <v>7</v>
@@ -3115,7 +3130,7 @@
         <v>29.2</v>
       </c>
       <c r="G116" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3123,22 +3138,22 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D117">
-        <v>881</v>
+        <v>909</v>
       </c>
       <c r="E117">
         <v>2507</v>
       </c>
       <c r="F117">
-        <v>35.1</v>
+        <v>36.3</v>
       </c>
       <c r="G117" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3146,22 +3161,22 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E118">
         <v>15</v>
       </c>
       <c r="F118">
-        <v>13.3</v>
+        <v>20</v>
       </c>
       <c r="G118" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3169,22 +3184,22 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D119">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E119">
         <v>94</v>
       </c>
       <c r="F119">
-        <v>21.3</v>
+        <v>22.3</v>
       </c>
       <c r="G119" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3192,22 +3207,22 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D120">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E120">
         <v>494</v>
       </c>
       <c r="F120">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="G120" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3215,22 +3230,22 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C121" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D121">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E121">
         <v>207</v>
       </c>
       <c r="F121">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="G121" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3238,10 +3253,10 @@
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D122">
         <v>18</v>
@@ -3253,7 +3268,7 @@
         <v>75</v>
       </c>
       <c r="G122" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3261,22 +3276,22 @@
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D123">
-        <v>2085</v>
+        <v>2062</v>
       </c>
       <c r="E123">
         <v>2507</v>
       </c>
       <c r="F123">
-        <v>83.2</v>
+        <v>82.2</v>
       </c>
       <c r="G123" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3284,10 +3299,10 @@
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D124">
         <v>14</v>
@@ -3299,7 +3314,7 @@
         <v>93.3</v>
       </c>
       <c r="G124" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3307,10 +3322,10 @@
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D125">
         <v>79</v>
@@ -3322,7 +3337,7 @@
         <v>84</v>
       </c>
       <c r="G125" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3330,22 +3345,22 @@
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D126">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E126">
         <v>494</v>
       </c>
       <c r="F126">
-        <v>80.8</v>
+        <v>80</v>
       </c>
       <c r="G126" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3353,22 +3368,22 @@
         <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D127">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E127">
         <v>207</v>
       </c>
       <c r="F127">
-        <v>78.7</v>
+        <v>78.3</v>
       </c>
       <c r="G127" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3376,10 +3391,10 @@
         <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D128">
         <v>10</v>
@@ -3391,7 +3406,7 @@
         <v>41.7</v>
       </c>
       <c r="G128" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3399,22 +3414,22 @@
         <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D129">
-        <v>1359</v>
+        <v>1296</v>
       </c>
       <c r="E129">
         <v>2507</v>
       </c>
       <c r="F129">
-        <v>54.2</v>
+        <v>51.7</v>
       </c>
       <c r="G129" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3422,22 +3437,22 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D130">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E130">
         <v>15</v>
       </c>
       <c r="F130">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="G130" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3445,22 +3460,22 @@
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D131">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E131">
         <v>94</v>
       </c>
       <c r="F131">
-        <v>53.2</v>
+        <v>50</v>
       </c>
       <c r="G131" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3468,22 +3483,22 @@
         <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D132">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E132">
         <v>494</v>
       </c>
       <c r="F132">
-        <v>51</v>
+        <v>49.4</v>
       </c>
       <c r="G132" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3491,22 +3506,22 @@
         <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D133">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E133">
         <v>207</v>
       </c>
       <c r="F133">
-        <v>44.9</v>
+        <v>43.5</v>
       </c>
       <c r="G133" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3514,10 +3529,10 @@
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D134">
         <v>12</v>
@@ -3529,7 +3544,7 @@
         <v>50</v>
       </c>
       <c r="G134" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3537,22 +3552,22 @@
         <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D135">
-        <v>1772</v>
+        <v>1894</v>
       </c>
       <c r="E135">
         <v>2507</v>
       </c>
       <c r="F135">
-        <v>70.7</v>
+        <v>75.5</v>
       </c>
       <c r="G135" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3560,22 +3575,22 @@
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D136">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136">
         <v>15</v>
       </c>
       <c r="F136">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="G136" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3583,22 +3598,22 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D137">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E137">
         <v>94</v>
       </c>
       <c r="F137">
-        <v>55.3</v>
+        <v>54.3</v>
       </c>
       <c r="G137" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3606,22 +3621,22 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D138">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="E138">
         <v>494</v>
       </c>
       <c r="F138">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G138" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3629,22 +3644,22 @@
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D139">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E139">
         <v>207</v>
       </c>
       <c r="F139">
-        <v>62.3</v>
+        <v>58.9</v>
       </c>
       <c r="G139" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3652,10 +3667,10 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D140">
         <v>3</v>
@@ -3667,7 +3682,7 @@
         <v>12.5</v>
       </c>
       <c r="G140" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3675,22 +3690,22 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D141">
-        <v>1037</v>
+        <v>1051</v>
       </c>
       <c r="E141">
         <v>2507</v>
       </c>
       <c r="F141">
-        <v>41.4</v>
+        <v>41.9</v>
       </c>
       <c r="G141" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3698,10 +3713,10 @@
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D142">
         <v>3</v>
@@ -3713,7 +3728,7 @@
         <v>20</v>
       </c>
       <c r="G142" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3721,10 +3736,10 @@
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C143" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D143">
         <v>32</v>
@@ -3736,7 +3751,7 @@
         <v>34</v>
       </c>
       <c r="G143" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3744,22 +3759,22 @@
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C144" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D144">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E144">
         <v>494</v>
       </c>
       <c r="F144">
-        <v>38.7</v>
+        <v>37.4</v>
       </c>
       <c r="G144" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3767,22 +3782,4162 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D145">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E145">
         <v>207</v>
       </c>
       <c r="F145">
+        <v>40.1</v>
+      </c>
+      <c r="G145" s="2">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146">
+        <v>10</v>
+      </c>
+      <c r="E146">
+        <v>24</v>
+      </c>
+      <c r="F146">
+        <v>41.7</v>
+      </c>
+      <c r="G146" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147">
+        <v>1524</v>
+      </c>
+      <c r="E147">
+        <v>2507</v>
+      </c>
+      <c r="F147">
+        <v>60.8</v>
+      </c>
+      <c r="G147" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148">
+        <v>9</v>
+      </c>
+      <c r="E148">
+        <v>15</v>
+      </c>
+      <c r="F148">
+        <v>60</v>
+      </c>
+      <c r="G148" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149">
+        <v>47</v>
+      </c>
+      <c r="E149">
+        <v>94</v>
+      </c>
+      <c r="F149">
+        <v>50</v>
+      </c>
+      <c r="G149" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150">
+        <v>283</v>
+      </c>
+      <c r="E150">
+        <v>494</v>
+      </c>
+      <c r="F150">
+        <v>57.3</v>
+      </c>
+      <c r="G150" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151">
+        <v>103</v>
+      </c>
+      <c r="E151">
+        <v>207</v>
+      </c>
+      <c r="F151">
+        <v>49.8</v>
+      </c>
+      <c r="G151" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152">
+        <v>7</v>
+      </c>
+      <c r="E152">
+        <v>24</v>
+      </c>
+      <c r="F152">
+        <v>29.2</v>
+      </c>
+      <c r="G152" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153">
+        <v>907</v>
+      </c>
+      <c r="E153">
+        <v>2507</v>
+      </c>
+      <c r="F153">
+        <v>36.2</v>
+      </c>
+      <c r="G153" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="E154">
+        <v>15</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155">
+        <v>21</v>
+      </c>
+      <c r="E155">
+        <v>94</v>
+      </c>
+      <c r="F155">
+        <v>22.3</v>
+      </c>
+      <c r="G155" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156">
+        <v>130</v>
+      </c>
+      <c r="E156">
+        <v>494</v>
+      </c>
+      <c r="F156">
+        <v>26.3</v>
+      </c>
+      <c r="G156" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157">
+        <v>51</v>
+      </c>
+      <c r="E157">
+        <v>207</v>
+      </c>
+      <c r="F157">
+        <v>24.6</v>
+      </c>
+      <c r="G157" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158">
+        <v>18</v>
+      </c>
+      <c r="E158">
+        <v>24</v>
+      </c>
+      <c r="F158">
+        <v>75</v>
+      </c>
+      <c r="G158" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159">
+        <v>2063</v>
+      </c>
+      <c r="E159">
+        <v>2507</v>
+      </c>
+      <c r="F159">
+        <v>82.3</v>
+      </c>
+      <c r="G159" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160">
+        <v>14</v>
+      </c>
+      <c r="E160">
+        <v>15</v>
+      </c>
+      <c r="F160">
+        <v>93.3</v>
+      </c>
+      <c r="G160" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161">
+        <v>79</v>
+      </c>
+      <c r="E161">
+        <v>94</v>
+      </c>
+      <c r="F161">
+        <v>84</v>
+      </c>
+      <c r="G161" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162">
+        <v>397</v>
+      </c>
+      <c r="E162">
+        <v>494</v>
+      </c>
+      <c r="F162">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="G162" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163">
+        <v>161</v>
+      </c>
+      <c r="E163">
+        <v>207</v>
+      </c>
+      <c r="F163">
+        <v>77.8</v>
+      </c>
+      <c r="G163" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164">
+        <v>10</v>
+      </c>
+      <c r="E164">
+        <v>24</v>
+      </c>
+      <c r="F164">
+        <v>41.7</v>
+      </c>
+      <c r="G164" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165">
+        <v>1299</v>
+      </c>
+      <c r="E165">
+        <v>2507</v>
+      </c>
+      <c r="F165">
+        <v>51.8</v>
+      </c>
+      <c r="G165" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166">
+        <v>9</v>
+      </c>
+      <c r="E166">
+        <v>15</v>
+      </c>
+      <c r="F166">
+        <v>60</v>
+      </c>
+      <c r="G166" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167">
+        <v>47</v>
+      </c>
+      <c r="E167">
+        <v>94</v>
+      </c>
+      <c r="F167">
+        <v>50</v>
+      </c>
+      <c r="G167" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" t="s">
+        <v>26</v>
+      </c>
+      <c r="D168">
+        <v>244</v>
+      </c>
+      <c r="E168">
+        <v>494</v>
+      </c>
+      <c r="F168">
+        <v>49.4</v>
+      </c>
+      <c r="G168" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169">
+        <v>93</v>
+      </c>
+      <c r="E169">
+        <v>207</v>
+      </c>
+      <c r="F169">
+        <v>44.9</v>
+      </c>
+      <c r="G169" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170" t="s">
+        <v>22</v>
+      </c>
+      <c r="D170">
+        <v>12</v>
+      </c>
+      <c r="E170">
+        <v>24</v>
+      </c>
+      <c r="F170">
+        <v>50</v>
+      </c>
+      <c r="G170" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171">
+        <v>1880</v>
+      </c>
+      <c r="E171">
+        <v>2507</v>
+      </c>
+      <c r="F171">
+        <v>75</v>
+      </c>
+      <c r="G171" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172">
+        <v>11</v>
+      </c>
+      <c r="E172">
+        <v>15</v>
+      </c>
+      <c r="F172">
+        <v>73.3</v>
+      </c>
+      <c r="G172" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173">
+        <v>52</v>
+      </c>
+      <c r="E173">
+        <v>94</v>
+      </c>
+      <c r="F173">
+        <v>55.3</v>
+      </c>
+      <c r="G173" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174" t="s">
+        <v>26</v>
+      </c>
+      <c r="D174">
+        <v>345</v>
+      </c>
+      <c r="E174">
+        <v>494</v>
+      </c>
+      <c r="F174">
+        <v>69.8</v>
+      </c>
+      <c r="G174" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175">
+        <v>124</v>
+      </c>
+      <c r="E175">
+        <v>207</v>
+      </c>
+      <c r="F175">
+        <v>59.9</v>
+      </c>
+      <c r="G175" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" t="s">
+        <v>21</v>
+      </c>
+      <c r="C176" t="s">
+        <v>22</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+      <c r="E176">
+        <v>24</v>
+      </c>
+      <c r="F176">
+        <v>12.5</v>
+      </c>
+      <c r="G176" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" t="s">
+        <v>21</v>
+      </c>
+      <c r="C177" t="s">
+        <v>23</v>
+      </c>
+      <c r="D177">
+        <v>1053</v>
+      </c>
+      <c r="E177">
+        <v>2507</v>
+      </c>
+      <c r="F177">
+        <v>42</v>
+      </c>
+      <c r="G177" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" t="s">
+        <v>21</v>
+      </c>
+      <c r="C178" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="E178">
+        <v>15</v>
+      </c>
+      <c r="F178">
+        <v>20</v>
+      </c>
+      <c r="G178" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179">
+        <v>31</v>
+      </c>
+      <c r="E179">
+        <v>94</v>
+      </c>
+      <c r="F179">
+        <v>33</v>
+      </c>
+      <c r="G179" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" t="s">
+        <v>21</v>
+      </c>
+      <c r="C180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180">
+        <v>189</v>
+      </c>
+      <c r="E180">
+        <v>494</v>
+      </c>
+      <c r="F180">
+        <v>38.3</v>
+      </c>
+      <c r="G180" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" t="s">
+        <v>27</v>
+      </c>
+      <c r="D181">
+        <v>83</v>
+      </c>
+      <c r="E181">
+        <v>207</v>
+      </c>
+      <c r="F181">
+        <v>40.1</v>
+      </c>
+      <c r="G181" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182">
+        <v>10</v>
+      </c>
+      <c r="E182">
+        <v>24</v>
+      </c>
+      <c r="F182">
+        <v>41.7</v>
+      </c>
+      <c r="G182" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183">
+        <v>1469</v>
+      </c>
+      <c r="E183">
+        <v>2507</v>
+      </c>
+      <c r="F183">
+        <v>58.6</v>
+      </c>
+      <c r="G183" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184">
+        <v>8</v>
+      </c>
+      <c r="E184">
+        <v>15</v>
+      </c>
+      <c r="F184">
+        <v>53.3</v>
+      </c>
+      <c r="G184" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185">
+        <v>47</v>
+      </c>
+      <c r="E185">
+        <v>94</v>
+      </c>
+      <c r="F185">
+        <v>50</v>
+      </c>
+      <c r="G185" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s">
+        <v>26</v>
+      </c>
+      <c r="D186">
+        <v>279</v>
+      </c>
+      <c r="E186">
+        <v>494</v>
+      </c>
+      <c r="F186">
+        <v>56.5</v>
+      </c>
+      <c r="G186" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" t="s">
+        <v>27</v>
+      </c>
+      <c r="D187">
+        <v>99</v>
+      </c>
+      <c r="E187">
+        <v>207</v>
+      </c>
+      <c r="F187">
+        <v>47.8</v>
+      </c>
+      <c r="G187" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" t="s">
+        <v>17</v>
+      </c>
+      <c r="C188" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188">
+        <v>7</v>
+      </c>
+      <c r="E188">
+        <v>24</v>
+      </c>
+      <c r="F188">
+        <v>29.2</v>
+      </c>
+      <c r="G188" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189" t="s">
+        <v>23</v>
+      </c>
+      <c r="D189">
+        <v>902</v>
+      </c>
+      <c r="E189">
+        <v>2507</v>
+      </c>
+      <c r="F189">
+        <v>36</v>
+      </c>
+      <c r="G189" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190" t="s">
+        <v>24</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="E190">
+        <v>15</v>
+      </c>
+      <c r="F190">
+        <v>20</v>
+      </c>
+      <c r="G190" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191">
+        <v>20</v>
+      </c>
+      <c r="E191">
+        <v>94</v>
+      </c>
+      <c r="F191">
+        <v>21.3</v>
+      </c>
+      <c r="G191" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" t="s">
+        <v>17</v>
+      </c>
+      <c r="C192" t="s">
+        <v>26</v>
+      </c>
+      <c r="D192">
+        <v>129</v>
+      </c>
+      <c r="E192">
+        <v>494</v>
+      </c>
+      <c r="F192">
+        <v>26.1</v>
+      </c>
+      <c r="G192" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193" t="s">
+        <v>17</v>
+      </c>
+      <c r="C193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193">
+        <v>48</v>
+      </c>
+      <c r="E193">
+        <v>207</v>
+      </c>
+      <c r="F193">
+        <v>23.2</v>
+      </c>
+      <c r="G193" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" t="s">
+        <v>22</v>
+      </c>
+      <c r="D194">
+        <v>18</v>
+      </c>
+      <c r="E194">
+        <v>24</v>
+      </c>
+      <c r="F194">
+        <v>75</v>
+      </c>
+      <c r="G194" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" t="s">
+        <v>23</v>
+      </c>
+      <c r="D195">
+        <v>2054</v>
+      </c>
+      <c r="E195">
+        <v>2507</v>
+      </c>
+      <c r="F195">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="G195" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196">
+        <v>14</v>
+      </c>
+      <c r="E196">
+        <v>15</v>
+      </c>
+      <c r="F196">
+        <v>93.3</v>
+      </c>
+      <c r="G196" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" t="s">
+        <v>25</v>
+      </c>
+      <c r="D197">
+        <v>78</v>
+      </c>
+      <c r="E197">
+        <v>94</v>
+      </c>
+      <c r="F197">
+        <v>83</v>
+      </c>
+      <c r="G197" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" t="s">
+        <v>26</v>
+      </c>
+      <c r="D198">
+        <v>397</v>
+      </c>
+      <c r="E198">
+        <v>494</v>
+      </c>
+      <c r="F198">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="G198" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199">
+        <v>162</v>
+      </c>
+      <c r="E199">
+        <v>207</v>
+      </c>
+      <c r="F199">
+        <v>78.3</v>
+      </c>
+      <c r="G199" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" t="s">
+        <v>22</v>
+      </c>
+      <c r="D200">
+        <v>10</v>
+      </c>
+      <c r="E200">
+        <v>24</v>
+      </c>
+      <c r="F200">
+        <v>41.7</v>
+      </c>
+      <c r="G200" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" t="s">
+        <v>23</v>
+      </c>
+      <c r="D201">
+        <v>1327</v>
+      </c>
+      <c r="E201">
+        <v>2507</v>
+      </c>
+      <c r="F201">
+        <v>52.9</v>
+      </c>
+      <c r="G201" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>12</v>
+      </c>
+      <c r="B202" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" t="s">
+        <v>24</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202">
+        <v>15</v>
+      </c>
+      <c r="F202">
+        <v>60</v>
+      </c>
+      <c r="G202" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203">
+        <v>48</v>
+      </c>
+      <c r="E203">
+        <v>94</v>
+      </c>
+      <c r="F203">
+        <v>51.1</v>
+      </c>
+      <c r="G203" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" t="s">
+        <v>26</v>
+      </c>
+      <c r="D204">
+        <v>248</v>
+      </c>
+      <c r="E204">
+        <v>494</v>
+      </c>
+      <c r="F204">
+        <v>50.2</v>
+      </c>
+      <c r="G204" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>12</v>
+      </c>
+      <c r="B205" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205" t="s">
+        <v>27</v>
+      </c>
+      <c r="D205">
+        <v>93</v>
+      </c>
+      <c r="E205">
+        <v>207</v>
+      </c>
+      <c r="F205">
+        <v>44.9</v>
+      </c>
+      <c r="G205" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" t="s">
+        <v>20</v>
+      </c>
+      <c r="C206" t="s">
+        <v>22</v>
+      </c>
+      <c r="D206">
+        <v>12</v>
+      </c>
+      <c r="E206">
+        <v>24</v>
+      </c>
+      <c r="F206">
+        <v>50</v>
+      </c>
+      <c r="G206" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>12</v>
+      </c>
+      <c r="B207" t="s">
+        <v>20</v>
+      </c>
+      <c r="C207" t="s">
+        <v>23</v>
+      </c>
+      <c r="D207">
+        <v>1845</v>
+      </c>
+      <c r="E207">
+        <v>2507</v>
+      </c>
+      <c r="F207">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="G207" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" t="s">
+        <v>20</v>
+      </c>
+      <c r="C208" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208">
+        <v>12</v>
+      </c>
+      <c r="E208">
+        <v>15</v>
+      </c>
+      <c r="F208">
+        <v>80</v>
+      </c>
+      <c r="G208" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209" t="s">
+        <v>25</v>
+      </c>
+      <c r="D209">
+        <v>53</v>
+      </c>
+      <c r="E209">
+        <v>94</v>
+      </c>
+      <c r="F209">
+        <v>56.4</v>
+      </c>
+      <c r="G209" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>12</v>
+      </c>
+      <c r="B210" t="s">
+        <v>20</v>
+      </c>
+      <c r="C210" t="s">
+        <v>26</v>
+      </c>
+      <c r="D210">
+        <v>342</v>
+      </c>
+      <c r="E210">
+        <v>494</v>
+      </c>
+      <c r="F210">
+        <v>69.2</v>
+      </c>
+      <c r="G210" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>12</v>
+      </c>
+      <c r="B211" t="s">
+        <v>20</v>
+      </c>
+      <c r="C211" t="s">
+        <v>27</v>
+      </c>
+      <c r="D211">
+        <v>123</v>
+      </c>
+      <c r="E211">
+        <v>207</v>
+      </c>
+      <c r="F211">
+        <v>59.4</v>
+      </c>
+      <c r="G211" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212" t="s">
+        <v>21</v>
+      </c>
+      <c r="C212" t="s">
+        <v>22</v>
+      </c>
+      <c r="D212">
+        <v>3</v>
+      </c>
+      <c r="E212">
+        <v>24</v>
+      </c>
+      <c r="F212">
+        <v>12.5</v>
+      </c>
+      <c r="G212" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" t="s">
+        <v>21</v>
+      </c>
+      <c r="C213" t="s">
+        <v>23</v>
+      </c>
+      <c r="D213">
+        <v>1044</v>
+      </c>
+      <c r="E213">
+        <v>2507</v>
+      </c>
+      <c r="F213">
+        <v>41.6</v>
+      </c>
+      <c r="G213" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214" t="s">
+        <v>21</v>
+      </c>
+      <c r="C214" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214">
+        <v>3</v>
+      </c>
+      <c r="E214">
+        <v>15</v>
+      </c>
+      <c r="F214">
+        <v>20</v>
+      </c>
+      <c r="G214" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>12</v>
+      </c>
+      <c r="B215" t="s">
+        <v>21</v>
+      </c>
+      <c r="C215" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215">
+        <v>31</v>
+      </c>
+      <c r="E215">
+        <v>94</v>
+      </c>
+      <c r="F215">
+        <v>33</v>
+      </c>
+      <c r="G215" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" t="s">
+        <v>21</v>
+      </c>
+      <c r="C216" t="s">
+        <v>26</v>
+      </c>
+      <c r="D216">
+        <v>192</v>
+      </c>
+      <c r="E216">
+        <v>494</v>
+      </c>
+      <c r="F216">
+        <v>38.9</v>
+      </c>
+      <c r="G216" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>12</v>
+      </c>
+      <c r="B217" t="s">
+        <v>21</v>
+      </c>
+      <c r="C217" t="s">
+        <v>27</v>
+      </c>
+      <c r="D217">
+        <v>84</v>
+      </c>
+      <c r="E217">
+        <v>207</v>
+      </c>
+      <c r="F217">
+        <v>40.6</v>
+      </c>
+      <c r="G217" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" t="s">
+        <v>16</v>
+      </c>
+      <c r="C218" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218">
+        <v>10</v>
+      </c>
+      <c r="E218">
+        <v>24</v>
+      </c>
+      <c r="F218">
+        <v>41.7</v>
+      </c>
+      <c r="G218" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" t="s">
+        <v>16</v>
+      </c>
+      <c r="C219" t="s">
+        <v>23</v>
+      </c>
+      <c r="D219">
+        <v>1412</v>
+      </c>
+      <c r="E219">
+        <v>2507</v>
+      </c>
+      <c r="F219">
+        <v>56.3</v>
+      </c>
+      <c r="G219" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" t="s">
+        <v>16</v>
+      </c>
+      <c r="C220" t="s">
+        <v>24</v>
+      </c>
+      <c r="D220">
+        <v>8</v>
+      </c>
+      <c r="E220">
+        <v>15</v>
+      </c>
+      <c r="F220">
+        <v>53.3</v>
+      </c>
+      <c r="G220" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" t="s">
+        <v>16</v>
+      </c>
+      <c r="C221" t="s">
+        <v>25</v>
+      </c>
+      <c r="D221">
+        <v>47</v>
+      </c>
+      <c r="E221">
+        <v>94</v>
+      </c>
+      <c r="F221">
+        <v>50</v>
+      </c>
+      <c r="G221" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" t="s">
+        <v>16</v>
+      </c>
+      <c r="C222" t="s">
+        <v>26</v>
+      </c>
+      <c r="D222">
+        <v>272</v>
+      </c>
+      <c r="E222">
+        <v>494</v>
+      </c>
+      <c r="F222">
+        <v>55.1</v>
+      </c>
+      <c r="G222" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" t="s">
+        <v>16</v>
+      </c>
+      <c r="C223" t="s">
+        <v>27</v>
+      </c>
+      <c r="D223">
+        <v>97</v>
+      </c>
+      <c r="E223">
+        <v>207</v>
+      </c>
+      <c r="F223">
+        <v>46.9</v>
+      </c>
+      <c r="G223" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" t="s">
+        <v>17</v>
+      </c>
+      <c r="C224" t="s">
+        <v>22</v>
+      </c>
+      <c r="D224">
+        <v>7</v>
+      </c>
+      <c r="E224">
+        <v>24</v>
+      </c>
+      <c r="F224">
+        <v>29.2</v>
+      </c>
+      <c r="G224" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225" t="s">
+        <v>17</v>
+      </c>
+      <c r="C225" t="s">
+        <v>23</v>
+      </c>
+      <c r="D225">
+        <v>900</v>
+      </c>
+      <c r="E225">
+        <v>2507</v>
+      </c>
+      <c r="F225">
+        <v>35.9</v>
+      </c>
+      <c r="G225" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" t="s">
+        <v>17</v>
+      </c>
+      <c r="C226" t="s">
+        <v>24</v>
+      </c>
+      <c r="D226">
+        <v>3</v>
+      </c>
+      <c r="E226">
+        <v>15</v>
+      </c>
+      <c r="F226">
+        <v>20</v>
+      </c>
+      <c r="G226" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" t="s">
+        <v>17</v>
+      </c>
+      <c r="C227" t="s">
+        <v>25</v>
+      </c>
+      <c r="D227">
+        <v>20</v>
+      </c>
+      <c r="E227">
+        <v>94</v>
+      </c>
+      <c r="F227">
+        <v>21.3</v>
+      </c>
+      <c r="G227" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" t="s">
+        <v>17</v>
+      </c>
+      <c r="C228" t="s">
+        <v>26</v>
+      </c>
+      <c r="D228">
+        <v>131</v>
+      </c>
+      <c r="E228">
+        <v>494</v>
+      </c>
+      <c r="F228">
+        <v>26.5</v>
+      </c>
+      <c r="G228" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" t="s">
+        <v>17</v>
+      </c>
+      <c r="C229" t="s">
+        <v>27</v>
+      </c>
+      <c r="D229">
+        <v>49</v>
+      </c>
+      <c r="E229">
+        <v>207</v>
+      </c>
+      <c r="F229">
+        <v>23.7</v>
+      </c>
+      <c r="G229" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230" t="s">
+        <v>22</v>
+      </c>
+      <c r="D230">
+        <v>18</v>
+      </c>
+      <c r="E230">
+        <v>24</v>
+      </c>
+      <c r="F230">
+        <v>75</v>
+      </c>
+      <c r="G230" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" t="s">
+        <v>18</v>
+      </c>
+      <c r="C231" t="s">
+        <v>23</v>
+      </c>
+      <c r="D231">
+        <v>2055</v>
+      </c>
+      <c r="E231">
+        <v>2507</v>
+      </c>
+      <c r="F231">
+        <v>82</v>
+      </c>
+      <c r="G231" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" t="s">
+        <v>24</v>
+      </c>
+      <c r="D232">
+        <v>14</v>
+      </c>
+      <c r="E232">
+        <v>15</v>
+      </c>
+      <c r="F232">
+        <v>93.3</v>
+      </c>
+      <c r="G232" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" t="s">
+        <v>25</v>
+      </c>
+      <c r="D233">
+        <v>79</v>
+      </c>
+      <c r="E233">
+        <v>94</v>
+      </c>
+      <c r="F233">
+        <v>84</v>
+      </c>
+      <c r="G233" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" t="s">
+        <v>18</v>
+      </c>
+      <c r="C234" t="s">
+        <v>26</v>
+      </c>
+      <c r="D234">
+        <v>394</v>
+      </c>
+      <c r="E234">
+        <v>494</v>
+      </c>
+      <c r="F234">
+        <v>79.8</v>
+      </c>
+      <c r="G234" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>13</v>
+      </c>
+      <c r="B235" t="s">
+        <v>18</v>
+      </c>
+      <c r="C235" t="s">
+        <v>27</v>
+      </c>
+      <c r="D235">
+        <v>159</v>
+      </c>
+      <c r="E235">
+        <v>207</v>
+      </c>
+      <c r="F235">
+        <v>76.8</v>
+      </c>
+      <c r="G235" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>13</v>
+      </c>
+      <c r="B236" t="s">
+        <v>19</v>
+      </c>
+      <c r="C236" t="s">
+        <v>22</v>
+      </c>
+      <c r="D236">
+        <v>10</v>
+      </c>
+      <c r="E236">
+        <v>24</v>
+      </c>
+      <c r="F236">
+        <v>41.7</v>
+      </c>
+      <c r="G236" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237" t="s">
+        <v>23</v>
+      </c>
+      <c r="D237">
+        <v>1344</v>
+      </c>
+      <c r="E237">
+        <v>2507</v>
+      </c>
+      <c r="F237">
+        <v>53.6</v>
+      </c>
+      <c r="G237" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" t="s">
+        <v>19</v>
+      </c>
+      <c r="C238" t="s">
+        <v>24</v>
+      </c>
+      <c r="D238">
+        <v>11</v>
+      </c>
+      <c r="E238">
+        <v>15</v>
+      </c>
+      <c r="F238">
+        <v>73.3</v>
+      </c>
+      <c r="G238" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>13</v>
+      </c>
+      <c r="B239" t="s">
+        <v>19</v>
+      </c>
+      <c r="C239" t="s">
+        <v>25</v>
+      </c>
+      <c r="D239">
+        <v>48</v>
+      </c>
+      <c r="E239">
+        <v>94</v>
+      </c>
+      <c r="F239">
+        <v>51.1</v>
+      </c>
+      <c r="G239" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240" t="s">
+        <v>26</v>
+      </c>
+      <c r="D240">
+        <v>245</v>
+      </c>
+      <c r="E240">
+        <v>494</v>
+      </c>
+      <c r="F240">
+        <v>49.6</v>
+      </c>
+      <c r="G240" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" t="s">
+        <v>19</v>
+      </c>
+      <c r="C241" t="s">
+        <v>27</v>
+      </c>
+      <c r="D241">
+        <v>91</v>
+      </c>
+      <c r="E241">
+        <v>207</v>
+      </c>
+      <c r="F241">
+        <v>44</v>
+      </c>
+      <c r="G241" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>13</v>
+      </c>
+      <c r="B242" t="s">
+        <v>20</v>
+      </c>
+      <c r="C242" t="s">
+        <v>22</v>
+      </c>
+      <c r="D242">
+        <v>12</v>
+      </c>
+      <c r="E242">
+        <v>24</v>
+      </c>
+      <c r="F242">
+        <v>50</v>
+      </c>
+      <c r="G242" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243" t="s">
+        <v>20</v>
+      </c>
+      <c r="C243" t="s">
+        <v>23</v>
+      </c>
+      <c r="D243">
+        <v>1817</v>
+      </c>
+      <c r="E243">
+        <v>2507</v>
+      </c>
+      <c r="F243">
+        <v>72.5</v>
+      </c>
+      <c r="G243" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244" t="s">
+        <v>20</v>
+      </c>
+      <c r="C244" t="s">
+        <v>24</v>
+      </c>
+      <c r="D244">
+        <v>10</v>
+      </c>
+      <c r="E244">
+        <v>15</v>
+      </c>
+      <c r="F244">
+        <v>66.7</v>
+      </c>
+      <c r="G244" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>13</v>
+      </c>
+      <c r="B245" t="s">
+        <v>20</v>
+      </c>
+      <c r="C245" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245">
+        <v>52</v>
+      </c>
+      <c r="E245">
+        <v>94</v>
+      </c>
+      <c r="F245">
+        <v>55.3</v>
+      </c>
+      <c r="G245" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246" t="s">
+        <v>20</v>
+      </c>
+      <c r="C246" t="s">
+        <v>26</v>
+      </c>
+      <c r="D246">
+        <v>340</v>
+      </c>
+      <c r="E246">
+        <v>494</v>
+      </c>
+      <c r="F246">
+        <v>68.8</v>
+      </c>
+      <c r="G246" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>13</v>
+      </c>
+      <c r="B247" t="s">
+        <v>20</v>
+      </c>
+      <c r="C247" t="s">
+        <v>27</v>
+      </c>
+      <c r="D247">
+        <v>126</v>
+      </c>
+      <c r="E247">
+        <v>207</v>
+      </c>
+      <c r="F247">
+        <v>60.9</v>
+      </c>
+      <c r="G247" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" t="s">
+        <v>13</v>
+      </c>
+      <c r="B248" t="s">
+        <v>21</v>
+      </c>
+      <c r="C248" t="s">
+        <v>22</v>
+      </c>
+      <c r="D248">
+        <v>3</v>
+      </c>
+      <c r="E248">
+        <v>24</v>
+      </c>
+      <c r="F248">
+        <v>12.5</v>
+      </c>
+      <c r="G248" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249" t="s">
+        <v>21</v>
+      </c>
+      <c r="C249" t="s">
+        <v>23</v>
+      </c>
+      <c r="D249">
+        <v>1056</v>
+      </c>
+      <c r="E249">
+        <v>2507</v>
+      </c>
+      <c r="F249">
+        <v>42.1</v>
+      </c>
+      <c r="G249" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>13</v>
+      </c>
+      <c r="B250" t="s">
+        <v>21</v>
+      </c>
+      <c r="C250" t="s">
+        <v>24</v>
+      </c>
+      <c r="D250">
+        <v>3</v>
+      </c>
+      <c r="E250">
+        <v>15</v>
+      </c>
+      <c r="F250">
+        <v>20</v>
+      </c>
+      <c r="G250" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" t="s">
+        <v>21</v>
+      </c>
+      <c r="C251" t="s">
+        <v>25</v>
+      </c>
+      <c r="D251">
+        <v>30</v>
+      </c>
+      <c r="E251">
+        <v>94</v>
+      </c>
+      <c r="F251">
+        <v>31.9</v>
+      </c>
+      <c r="G251" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>13</v>
+      </c>
+      <c r="B252" t="s">
+        <v>21</v>
+      </c>
+      <c r="C252" t="s">
+        <v>26</v>
+      </c>
+      <c r="D252">
+        <v>187</v>
+      </c>
+      <c r="E252">
+        <v>494</v>
+      </c>
+      <c r="F252">
+        <v>37.9</v>
+      </c>
+      <c r="G252" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>13</v>
+      </c>
+      <c r="B253" t="s">
+        <v>21</v>
+      </c>
+      <c r="C253" t="s">
+        <v>27</v>
+      </c>
+      <c r="D253">
+        <v>78</v>
+      </c>
+      <c r="E253">
+        <v>207</v>
+      </c>
+      <c r="F253">
+        <v>37.7</v>
+      </c>
+      <c r="G253" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>14</v>
+      </c>
+      <c r="B254" t="s">
+        <v>16</v>
+      </c>
+      <c r="C254" t="s">
+        <v>22</v>
+      </c>
+      <c r="D254">
+        <v>10</v>
+      </c>
+      <c r="E254">
+        <v>24</v>
+      </c>
+      <c r="F254">
+        <v>41.7</v>
+      </c>
+      <c r="G254" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>14</v>
+      </c>
+      <c r="B255" t="s">
+        <v>16</v>
+      </c>
+      <c r="C255" t="s">
+        <v>23</v>
+      </c>
+      <c r="D255">
+        <v>1346</v>
+      </c>
+      <c r="E255">
+        <v>2507</v>
+      </c>
+      <c r="F255">
+        <v>53.7</v>
+      </c>
+      <c r="G255" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>14</v>
+      </c>
+      <c r="B256" t="s">
+        <v>16</v>
+      </c>
+      <c r="C256" t="s">
+        <v>24</v>
+      </c>
+      <c r="D256">
+        <v>7</v>
+      </c>
+      <c r="E256">
+        <v>15</v>
+      </c>
+      <c r="F256">
+        <v>46.7</v>
+      </c>
+      <c r="G256" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>14</v>
+      </c>
+      <c r="B257" t="s">
+        <v>16</v>
+      </c>
+      <c r="C257" t="s">
+        <v>25</v>
+      </c>
+      <c r="D257">
+        <v>42</v>
+      </c>
+      <c r="E257">
+        <v>94</v>
+      </c>
+      <c r="F257">
+        <v>44.7</v>
+      </c>
+      <c r="G257" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>14</v>
+      </c>
+      <c r="B258" t="s">
+        <v>16</v>
+      </c>
+      <c r="C258" t="s">
+        <v>26</v>
+      </c>
+      <c r="D258">
+        <v>258</v>
+      </c>
+      <c r="E258">
+        <v>494</v>
+      </c>
+      <c r="F258">
+        <v>52.2</v>
+      </c>
+      <c r="G258" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>14</v>
+      </c>
+      <c r="B259" t="s">
+        <v>16</v>
+      </c>
+      <c r="C259" t="s">
+        <v>27</v>
+      </c>
+      <c r="D259">
+        <v>97</v>
+      </c>
+      <c r="E259">
+        <v>207</v>
+      </c>
+      <c r="F259">
+        <v>46.9</v>
+      </c>
+      <c r="G259" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>14</v>
+      </c>
+      <c r="B260" t="s">
+        <v>17</v>
+      </c>
+      <c r="C260" t="s">
+        <v>22</v>
+      </c>
+      <c r="D260">
+        <v>7</v>
+      </c>
+      <c r="E260">
+        <v>24</v>
+      </c>
+      <c r="F260">
+        <v>29.2</v>
+      </c>
+      <c r="G260" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>14</v>
+      </c>
+      <c r="B261" t="s">
+        <v>17</v>
+      </c>
+      <c r="C261" t="s">
+        <v>23</v>
+      </c>
+      <c r="D261">
+        <v>881</v>
+      </c>
+      <c r="E261">
+        <v>2507</v>
+      </c>
+      <c r="F261">
+        <v>35.1</v>
+      </c>
+      <c r="G261" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>14</v>
+      </c>
+      <c r="B262" t="s">
+        <v>17</v>
+      </c>
+      <c r="C262" t="s">
+        <v>24</v>
+      </c>
+      <c r="D262">
+        <v>2</v>
+      </c>
+      <c r="E262">
+        <v>15</v>
+      </c>
+      <c r="F262">
+        <v>13.3</v>
+      </c>
+      <c r="G262" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>14</v>
+      </c>
+      <c r="B263" t="s">
+        <v>17</v>
+      </c>
+      <c r="C263" t="s">
+        <v>25</v>
+      </c>
+      <c r="D263">
+        <v>20</v>
+      </c>
+      <c r="E263">
+        <v>94</v>
+      </c>
+      <c r="F263">
+        <v>21.3</v>
+      </c>
+      <c r="G263" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>14</v>
+      </c>
+      <c r="B264" t="s">
+        <v>17</v>
+      </c>
+      <c r="C264" t="s">
+        <v>26</v>
+      </c>
+      <c r="D264">
+        <v>131</v>
+      </c>
+      <c r="E264">
+        <v>494</v>
+      </c>
+      <c r="F264">
+        <v>26.5</v>
+      </c>
+      <c r="G264" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>14</v>
+      </c>
+      <c r="B265" t="s">
+        <v>17</v>
+      </c>
+      <c r="C265" t="s">
+        <v>27</v>
+      </c>
+      <c r="D265">
+        <v>49</v>
+      </c>
+      <c r="E265">
+        <v>207</v>
+      </c>
+      <c r="F265">
+        <v>23.7</v>
+      </c>
+      <c r="G265" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>14</v>
+      </c>
+      <c r="B266" t="s">
+        <v>18</v>
+      </c>
+      <c r="C266" t="s">
+        <v>22</v>
+      </c>
+      <c r="D266">
+        <v>18</v>
+      </c>
+      <c r="E266">
+        <v>24</v>
+      </c>
+      <c r="F266">
+        <v>75</v>
+      </c>
+      <c r="G266" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>14</v>
+      </c>
+      <c r="B267" t="s">
+        <v>18</v>
+      </c>
+      <c r="C267" t="s">
+        <v>23</v>
+      </c>
+      <c r="D267">
+        <v>2085</v>
+      </c>
+      <c r="E267">
+        <v>2507</v>
+      </c>
+      <c r="F267">
+        <v>83.2</v>
+      </c>
+      <c r="G267" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>14</v>
+      </c>
+      <c r="B268" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268" t="s">
+        <v>24</v>
+      </c>
+      <c r="D268">
+        <v>14</v>
+      </c>
+      <c r="E268">
+        <v>15</v>
+      </c>
+      <c r="F268">
+        <v>93.3</v>
+      </c>
+      <c r="G268" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>14</v>
+      </c>
+      <c r="B269" t="s">
+        <v>18</v>
+      </c>
+      <c r="C269" t="s">
+        <v>25</v>
+      </c>
+      <c r="D269">
+        <v>79</v>
+      </c>
+      <c r="E269">
+        <v>94</v>
+      </c>
+      <c r="F269">
+        <v>84</v>
+      </c>
+      <c r="G269" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>14</v>
+      </c>
+      <c r="B270" t="s">
+        <v>18</v>
+      </c>
+      <c r="C270" t="s">
+        <v>26</v>
+      </c>
+      <c r="D270">
+        <v>399</v>
+      </c>
+      <c r="E270">
+        <v>494</v>
+      </c>
+      <c r="F270">
+        <v>80.8</v>
+      </c>
+      <c r="G270" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>14</v>
+      </c>
+      <c r="B271" t="s">
+        <v>18</v>
+      </c>
+      <c r="C271" t="s">
+        <v>27</v>
+      </c>
+      <c r="D271">
+        <v>163</v>
+      </c>
+      <c r="E271">
+        <v>207</v>
+      </c>
+      <c r="F271">
+        <v>78.7</v>
+      </c>
+      <c r="G271" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>14</v>
+      </c>
+      <c r="B272" t="s">
+        <v>19</v>
+      </c>
+      <c r="C272" t="s">
+        <v>22</v>
+      </c>
+      <c r="D272">
+        <v>10</v>
+      </c>
+      <c r="E272">
+        <v>24</v>
+      </c>
+      <c r="F272">
+        <v>41.7</v>
+      </c>
+      <c r="G272" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>14</v>
+      </c>
+      <c r="B273" t="s">
+        <v>19</v>
+      </c>
+      <c r="C273" t="s">
+        <v>23</v>
+      </c>
+      <c r="D273">
+        <v>1359</v>
+      </c>
+      <c r="E273">
+        <v>2507</v>
+      </c>
+      <c r="F273">
+        <v>54.2</v>
+      </c>
+      <c r="G273" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>14</v>
+      </c>
+      <c r="B274" t="s">
+        <v>19</v>
+      </c>
+      <c r="C274" t="s">
+        <v>24</v>
+      </c>
+      <c r="D274">
+        <v>11</v>
+      </c>
+      <c r="E274">
+        <v>15</v>
+      </c>
+      <c r="F274">
+        <v>73.3</v>
+      </c>
+      <c r="G274" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>14</v>
+      </c>
+      <c r="B275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C275" t="s">
+        <v>25</v>
+      </c>
+      <c r="D275">
+        <v>50</v>
+      </c>
+      <c r="E275">
+        <v>94</v>
+      </c>
+      <c r="F275">
+        <v>53.2</v>
+      </c>
+      <c r="G275" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>14</v>
+      </c>
+      <c r="B276" t="s">
+        <v>19</v>
+      </c>
+      <c r="C276" t="s">
+        <v>26</v>
+      </c>
+      <c r="D276">
+        <v>252</v>
+      </c>
+      <c r="E276">
+        <v>494</v>
+      </c>
+      <c r="F276">
+        <v>51</v>
+      </c>
+      <c r="G276" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>14</v>
+      </c>
+      <c r="B277" t="s">
+        <v>19</v>
+      </c>
+      <c r="C277" t="s">
+        <v>27</v>
+      </c>
+      <c r="D277">
+        <v>93</v>
+      </c>
+      <c r="E277">
+        <v>207</v>
+      </c>
+      <c r="F277">
+        <v>44.9</v>
+      </c>
+      <c r="G277" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>14</v>
+      </c>
+      <c r="B278" t="s">
+        <v>20</v>
+      </c>
+      <c r="C278" t="s">
+        <v>22</v>
+      </c>
+      <c r="D278">
+        <v>12</v>
+      </c>
+      <c r="E278">
+        <v>24</v>
+      </c>
+      <c r="F278">
+        <v>50</v>
+      </c>
+      <c r="G278" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>14</v>
+      </c>
+      <c r="B279" t="s">
+        <v>20</v>
+      </c>
+      <c r="C279" t="s">
+        <v>23</v>
+      </c>
+      <c r="D279">
+        <v>1772</v>
+      </c>
+      <c r="E279">
+        <v>2507</v>
+      </c>
+      <c r="F279">
+        <v>70.7</v>
+      </c>
+      <c r="G279" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>14</v>
+      </c>
+      <c r="B280" t="s">
+        <v>20</v>
+      </c>
+      <c r="C280" t="s">
+        <v>24</v>
+      </c>
+      <c r="D280">
+        <v>9</v>
+      </c>
+      <c r="E280">
+        <v>15</v>
+      </c>
+      <c r="F280">
+        <v>60</v>
+      </c>
+      <c r="G280" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>14</v>
+      </c>
+      <c r="B281" t="s">
+        <v>20</v>
+      </c>
+      <c r="C281" t="s">
+        <v>25</v>
+      </c>
+      <c r="D281">
+        <v>52</v>
+      </c>
+      <c r="E281">
+        <v>94</v>
+      </c>
+      <c r="F281">
+        <v>55.3</v>
+      </c>
+      <c r="G281" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>14</v>
+      </c>
+      <c r="B282" t="s">
+        <v>20</v>
+      </c>
+      <c r="C282" t="s">
+        <v>26</v>
+      </c>
+      <c r="D282">
+        <v>331</v>
+      </c>
+      <c r="E282">
+        <v>494</v>
+      </c>
+      <c r="F282">
+        <v>67</v>
+      </c>
+      <c r="G282" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>14</v>
+      </c>
+      <c r="B283" t="s">
+        <v>20</v>
+      </c>
+      <c r="C283" t="s">
+        <v>27</v>
+      </c>
+      <c r="D283">
+        <v>129</v>
+      </c>
+      <c r="E283">
+        <v>207</v>
+      </c>
+      <c r="F283">
+        <v>62.3</v>
+      </c>
+      <c r="G283" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>14</v>
+      </c>
+      <c r="B284" t="s">
+        <v>21</v>
+      </c>
+      <c r="C284" t="s">
+        <v>22</v>
+      </c>
+      <c r="D284">
+        <v>3</v>
+      </c>
+      <c r="E284">
+        <v>24</v>
+      </c>
+      <c r="F284">
+        <v>12.5</v>
+      </c>
+      <c r="G284" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>14</v>
+      </c>
+      <c r="B285" t="s">
+        <v>21</v>
+      </c>
+      <c r="C285" t="s">
+        <v>23</v>
+      </c>
+      <c r="D285">
+        <v>1037</v>
+      </c>
+      <c r="E285">
+        <v>2507</v>
+      </c>
+      <c r="F285">
+        <v>41.4</v>
+      </c>
+      <c r="G285" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
+        <v>14</v>
+      </c>
+      <c r="B286" t="s">
+        <v>21</v>
+      </c>
+      <c r="C286" t="s">
+        <v>24</v>
+      </c>
+      <c r="D286">
+        <v>3</v>
+      </c>
+      <c r="E286">
+        <v>15</v>
+      </c>
+      <c r="F286">
+        <v>20</v>
+      </c>
+      <c r="G286" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>14</v>
+      </c>
+      <c r="B287" t="s">
+        <v>21</v>
+      </c>
+      <c r="C287" t="s">
+        <v>25</v>
+      </c>
+      <c r="D287">
+        <v>32</v>
+      </c>
+      <c r="E287">
+        <v>94</v>
+      </c>
+      <c r="F287">
+        <v>34</v>
+      </c>
+      <c r="G287" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>14</v>
+      </c>
+      <c r="B288" t="s">
+        <v>21</v>
+      </c>
+      <c r="C288" t="s">
+        <v>26</v>
+      </c>
+      <c r="D288">
+        <v>191</v>
+      </c>
+      <c r="E288">
+        <v>494</v>
+      </c>
+      <c r="F288">
+        <v>38.7</v>
+      </c>
+      <c r="G288" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>14</v>
+      </c>
+      <c r="B289" t="s">
+        <v>21</v>
+      </c>
+      <c r="C289" t="s">
+        <v>27</v>
+      </c>
+      <c r="D289">
+        <v>76</v>
+      </c>
+      <c r="E289">
+        <v>207</v>
+      </c>
+      <c r="F289">
         <v>36.7</v>
       </c>
-      <c r="G145" s="2">
+      <c r="G289" s="2">
         <v>44453</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>15</v>
+      </c>
+      <c r="B290" t="s">
+        <v>16</v>
+      </c>
+      <c r="C290" t="s">
+        <v>22</v>
+      </c>
+      <c r="D290">
+        <v>11</v>
+      </c>
+      <c r="E290">
+        <v>24</v>
+      </c>
+      <c r="F290">
+        <v>45.8</v>
+      </c>
+      <c r="G290" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" t="s">
+        <v>16</v>
+      </c>
+      <c r="C291" t="s">
+        <v>23</v>
+      </c>
+      <c r="D291">
+        <v>1330</v>
+      </c>
+      <c r="E291">
+        <v>2507</v>
+      </c>
+      <c r="F291">
+        <v>53.1</v>
+      </c>
+      <c r="G291" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>15</v>
+      </c>
+      <c r="B292" t="s">
+        <v>16</v>
+      </c>
+      <c r="C292" t="s">
+        <v>24</v>
+      </c>
+      <c r="D292">
+        <v>7</v>
+      </c>
+      <c r="E292">
+        <v>15</v>
+      </c>
+      <c r="F292">
+        <v>46.7</v>
+      </c>
+      <c r="G292" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>15</v>
+      </c>
+      <c r="B293" t="s">
+        <v>16</v>
+      </c>
+      <c r="C293" t="s">
+        <v>25</v>
+      </c>
+      <c r="D293">
+        <v>40</v>
+      </c>
+      <c r="E293">
+        <v>94</v>
+      </c>
+      <c r="F293">
+        <v>42.6</v>
+      </c>
+      <c r="G293" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>15</v>
+      </c>
+      <c r="B294" t="s">
+        <v>16</v>
+      </c>
+      <c r="C294" t="s">
+        <v>26</v>
+      </c>
+      <c r="D294">
+        <v>268</v>
+      </c>
+      <c r="E294">
+        <v>494</v>
+      </c>
+      <c r="F294">
+        <v>54.3</v>
+      </c>
+      <c r="G294" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>15</v>
+      </c>
+      <c r="B295" t="s">
+        <v>16</v>
+      </c>
+      <c r="C295" t="s">
+        <v>27</v>
+      </c>
+      <c r="D295">
+        <v>100</v>
+      </c>
+      <c r="E295">
+        <v>207</v>
+      </c>
+      <c r="F295">
+        <v>48.3</v>
+      </c>
+      <c r="G295" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>15</v>
+      </c>
+      <c r="B296" t="s">
+        <v>17</v>
+      </c>
+      <c r="C296" t="s">
+        <v>22</v>
+      </c>
+      <c r="D296">
+        <v>7</v>
+      </c>
+      <c r="E296">
+        <v>24</v>
+      </c>
+      <c r="F296">
+        <v>29.2</v>
+      </c>
+      <c r="G296" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>15</v>
+      </c>
+      <c r="B297" t="s">
+        <v>17</v>
+      </c>
+      <c r="C297" t="s">
+        <v>23</v>
+      </c>
+      <c r="D297">
+        <v>881</v>
+      </c>
+      <c r="E297">
+        <v>2507</v>
+      </c>
+      <c r="F297">
+        <v>35.1</v>
+      </c>
+      <c r="G297" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" t="s">
+        <v>17</v>
+      </c>
+      <c r="C298" t="s">
+        <v>24</v>
+      </c>
+      <c r="D298">
+        <v>2</v>
+      </c>
+      <c r="E298">
+        <v>15</v>
+      </c>
+      <c r="F298">
+        <v>13.3</v>
+      </c>
+      <c r="G298" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>15</v>
+      </c>
+      <c r="B299" t="s">
+        <v>17</v>
+      </c>
+      <c r="C299" t="s">
+        <v>25</v>
+      </c>
+      <c r="D299">
+        <v>19</v>
+      </c>
+      <c r="E299">
+        <v>94</v>
+      </c>
+      <c r="F299">
+        <v>20.2</v>
+      </c>
+      <c r="G299" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>15</v>
+      </c>
+      <c r="B300" t="s">
+        <v>17</v>
+      </c>
+      <c r="C300" t="s">
+        <v>26</v>
+      </c>
+      <c r="D300">
+        <v>132</v>
+      </c>
+      <c r="E300">
+        <v>494</v>
+      </c>
+      <c r="F300">
+        <v>26.7</v>
+      </c>
+      <c r="G300" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>15</v>
+      </c>
+      <c r="B301" t="s">
+        <v>17</v>
+      </c>
+      <c r="C301" t="s">
+        <v>27</v>
+      </c>
+      <c r="D301">
+        <v>51</v>
+      </c>
+      <c r="E301">
+        <v>207</v>
+      </c>
+      <c r="F301">
+        <v>24.6</v>
+      </c>
+      <c r="G301" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>15</v>
+      </c>
+      <c r="B302" t="s">
+        <v>18</v>
+      </c>
+      <c r="C302" t="s">
+        <v>22</v>
+      </c>
+      <c r="D302">
+        <v>18</v>
+      </c>
+      <c r="E302">
+        <v>24</v>
+      </c>
+      <c r="F302">
+        <v>75</v>
+      </c>
+      <c r="G302" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>15</v>
+      </c>
+      <c r="B303" t="s">
+        <v>18</v>
+      </c>
+      <c r="C303" t="s">
+        <v>23</v>
+      </c>
+      <c r="D303">
+        <v>2067</v>
+      </c>
+      <c r="E303">
+        <v>2507</v>
+      </c>
+      <c r="F303">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="G303" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>15</v>
+      </c>
+      <c r="B304" t="s">
+        <v>18</v>
+      </c>
+      <c r="C304" t="s">
+        <v>24</v>
+      </c>
+      <c r="D304">
+        <v>14</v>
+      </c>
+      <c r="E304">
+        <v>15</v>
+      </c>
+      <c r="F304">
+        <v>93.3</v>
+      </c>
+      <c r="G304" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>15</v>
+      </c>
+      <c r="B305" t="s">
+        <v>18</v>
+      </c>
+      <c r="C305" t="s">
+        <v>25</v>
+      </c>
+      <c r="D305">
+        <v>80</v>
+      </c>
+      <c r="E305">
+        <v>94</v>
+      </c>
+      <c r="F305">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="G305" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" t="s">
+        <v>15</v>
+      </c>
+      <c r="B306" t="s">
+        <v>18</v>
+      </c>
+      <c r="C306" t="s">
+        <v>26</v>
+      </c>
+      <c r="D306">
+        <v>397</v>
+      </c>
+      <c r="E306">
+        <v>494</v>
+      </c>
+      <c r="F306">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="G306" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>15</v>
+      </c>
+      <c r="B307" t="s">
+        <v>18</v>
+      </c>
+      <c r="C307" t="s">
+        <v>27</v>
+      </c>
+      <c r="D307">
+        <v>162</v>
+      </c>
+      <c r="E307">
+        <v>207</v>
+      </c>
+      <c r="F307">
+        <v>78.3</v>
+      </c>
+      <c r="G307" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>15</v>
+      </c>
+      <c r="B308" t="s">
+        <v>19</v>
+      </c>
+      <c r="C308" t="s">
+        <v>22</v>
+      </c>
+      <c r="D308">
+        <v>10</v>
+      </c>
+      <c r="E308">
+        <v>24</v>
+      </c>
+      <c r="F308">
+        <v>41.7</v>
+      </c>
+      <c r="G308" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>15</v>
+      </c>
+      <c r="B309" t="s">
+        <v>19</v>
+      </c>
+      <c r="C309" t="s">
+        <v>23</v>
+      </c>
+      <c r="D309">
+        <v>1349</v>
+      </c>
+      <c r="E309">
+        <v>2507</v>
+      </c>
+      <c r="F309">
+        <v>53.8</v>
+      </c>
+      <c r="G309" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>15</v>
+      </c>
+      <c r="B310" t="s">
+        <v>19</v>
+      </c>
+      <c r="C310" t="s">
+        <v>24</v>
+      </c>
+      <c r="D310">
+        <v>11</v>
+      </c>
+      <c r="E310">
+        <v>15</v>
+      </c>
+      <c r="F310">
+        <v>73.3</v>
+      </c>
+      <c r="G310" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" t="s">
+        <v>15</v>
+      </c>
+      <c r="B311" t="s">
+        <v>19</v>
+      </c>
+      <c r="C311" t="s">
+        <v>25</v>
+      </c>
+      <c r="D311">
+        <v>50</v>
+      </c>
+      <c r="E311">
+        <v>94</v>
+      </c>
+      <c r="F311">
+        <v>53.2</v>
+      </c>
+      <c r="G311" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" t="s">
+        <v>15</v>
+      </c>
+      <c r="B312" t="s">
+        <v>19</v>
+      </c>
+      <c r="C312" t="s">
+        <v>26</v>
+      </c>
+      <c r="D312">
+        <v>245</v>
+      </c>
+      <c r="E312">
+        <v>494</v>
+      </c>
+      <c r="F312">
+        <v>49.6</v>
+      </c>
+      <c r="G312" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" t="s">
+        <v>15</v>
+      </c>
+      <c r="B313" t="s">
+        <v>19</v>
+      </c>
+      <c r="C313" t="s">
+        <v>27</v>
+      </c>
+      <c r="D313">
+        <v>91</v>
+      </c>
+      <c r="E313">
+        <v>207</v>
+      </c>
+      <c r="F313">
+        <v>44</v>
+      </c>
+      <c r="G313" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>15</v>
+      </c>
+      <c r="B314" t="s">
+        <v>20</v>
+      </c>
+      <c r="C314" t="s">
+        <v>22</v>
+      </c>
+      <c r="D314">
+        <v>13</v>
+      </c>
+      <c r="E314">
+        <v>24</v>
+      </c>
+      <c r="F314">
+        <v>54.2</v>
+      </c>
+      <c r="G314" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315" t="s">
+        <v>20</v>
+      </c>
+      <c r="C315" t="s">
+        <v>23</v>
+      </c>
+      <c r="D315">
+        <v>1748</v>
+      </c>
+      <c r="E315">
+        <v>2507</v>
+      </c>
+      <c r="F315">
+        <v>69.7</v>
+      </c>
+      <c r="G315" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>15</v>
+      </c>
+      <c r="B316" t="s">
+        <v>20</v>
+      </c>
+      <c r="C316" t="s">
+        <v>24</v>
+      </c>
+      <c r="D316">
+        <v>10</v>
+      </c>
+      <c r="E316">
+        <v>15</v>
+      </c>
+      <c r="F316">
+        <v>66.7</v>
+      </c>
+      <c r="G316" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" t="s">
+        <v>15</v>
+      </c>
+      <c r="B317" t="s">
+        <v>20</v>
+      </c>
+      <c r="C317" t="s">
+        <v>25</v>
+      </c>
+      <c r="D317">
+        <v>50</v>
+      </c>
+      <c r="E317">
+        <v>94</v>
+      </c>
+      <c r="F317">
+        <v>53.2</v>
+      </c>
+      <c r="G317" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" t="s">
+        <v>15</v>
+      </c>
+      <c r="B318" t="s">
+        <v>20</v>
+      </c>
+      <c r="C318" t="s">
+        <v>26</v>
+      </c>
+      <c r="D318">
+        <v>325</v>
+      </c>
+      <c r="E318">
+        <v>494</v>
+      </c>
+      <c r="F318">
+        <v>65.8</v>
+      </c>
+      <c r="G318" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" t="s">
+        <v>15</v>
+      </c>
+      <c r="B319" t="s">
+        <v>20</v>
+      </c>
+      <c r="C319" t="s">
+        <v>27</v>
+      </c>
+      <c r="D319">
+        <v>127</v>
+      </c>
+      <c r="E319">
+        <v>207</v>
+      </c>
+      <c r="F319">
+        <v>61.4</v>
+      </c>
+      <c r="G319" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" t="s">
+        <v>21</v>
+      </c>
+      <c r="C320" t="s">
+        <v>22</v>
+      </c>
+      <c r="D320">
+        <v>3</v>
+      </c>
+      <c r="E320">
+        <v>24</v>
+      </c>
+      <c r="F320">
+        <v>12.5</v>
+      </c>
+      <c r="G320" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" t="s">
+        <v>15</v>
+      </c>
+      <c r="B321" t="s">
+        <v>21</v>
+      </c>
+      <c r="C321" t="s">
+        <v>23</v>
+      </c>
+      <c r="D321">
+        <v>1035</v>
+      </c>
+      <c r="E321">
+        <v>2507</v>
+      </c>
+      <c r="F321">
+        <v>41.3</v>
+      </c>
+      <c r="G321" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" t="s">
+        <v>15</v>
+      </c>
+      <c r="B322" t="s">
+        <v>21</v>
+      </c>
+      <c r="C322" t="s">
+        <v>24</v>
+      </c>
+      <c r="D322">
+        <v>3</v>
+      </c>
+      <c r="E322">
+        <v>15</v>
+      </c>
+      <c r="F322">
+        <v>20</v>
+      </c>
+      <c r="G322" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" t="s">
+        <v>15</v>
+      </c>
+      <c r="B323" t="s">
+        <v>21</v>
+      </c>
+      <c r="C323" t="s">
+        <v>25</v>
+      </c>
+      <c r="D323">
+        <v>32</v>
+      </c>
+      <c r="E323">
+        <v>94</v>
+      </c>
+      <c r="F323">
+        <v>34</v>
+      </c>
+      <c r="G323" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" t="s">
+        <v>21</v>
+      </c>
+      <c r="C324" t="s">
+        <v>26</v>
+      </c>
+      <c r="D324">
+        <v>188</v>
+      </c>
+      <c r="E324">
+        <v>494</v>
+      </c>
+      <c r="F324">
+        <v>38.1</v>
+      </c>
+      <c r="G324" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" t="s">
+        <v>15</v>
+      </c>
+      <c r="B325" t="s">
+        <v>21</v>
+      </c>
+      <c r="C325" t="s">
+        <v>27</v>
+      </c>
+      <c r="D325">
+        <v>74</v>
+      </c>
+      <c r="E325">
+        <v>207</v>
+      </c>
+      <c r="F325">
+        <v>35.7</v>
+      </c>
+      <c r="G325" s="2">
+        <v>44508</v>
       </c>
     </row>
   </sheetData>
